--- a/biology/Zoologie/Boridae/Boridae.xlsx
+++ b/biology/Zoologie/Boridae/Boridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Boridae sont une famille d'insectes de l'ordre des coléoptères.
 </t>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des sous-familles
-Selon ITIS      (28 août 2014)[1] :
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (28 août 2014) :
 sous-famille Borinae C. G. Thomson, 1859
-sous-famille Synercticinae Lawrence &amp; Pollock, 1994
-Liste des genres
-Selon Catalogue of Life                                   (28 août 2014)[2] :
+sous-famille Synercticinae Lawrence &amp; Pollock, 1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boridae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boridae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des taxons inférieurs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 août 2014) :
 genre Boros
 genre Lecontia
 genre Synercticus</t>
